--- a/数据整理/stocks/A股/创业板/300613-富瀚微.xlsx
+++ b/数据整理/stocks/A股/创业板/300613-富瀚微.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008635</t>
+          <t>040025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安科技创新混合</t>
+          <t>华安科技动力混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>11.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3091</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>040025</t>
+          <t>001072</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安科技动力混合</t>
+          <t>华安智能装备主题股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.74</t>
+          <t>7.31</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2047</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001072</t>
+          <t>160425</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华安智能装备主题股票</t>
+          <t>华安创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.77</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1942</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>040015</t>
+          <t>009547</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华安动态灵活配置混合</t>
+          <t>华安鼎利混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>79.58</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>64.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1687</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>160425</t>
+          <t>008635</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安创业板两年定期开放混合</t>
+          <t>华安科技创新混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.87</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1566</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009547</t>
+          <t>006122</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华安鼎利混合</t>
+          <t>华安低碳生活混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>64.65</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1528</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006122</t>
+          <t>040015</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华安低碳生活混合</t>
+          <t>华安动态灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.13</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1419</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -698,15 +778,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>92.03</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>4.94</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>7</v>
       </c>
     </row>
@@ -716,25 +806,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006822</t>
+          <t>006823</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>凯石湛混合A</t>
+          <t>凯石湛混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>77.93</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>4.56</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>10</v>
       </c>
     </row>
@@ -744,25 +844,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006823</t>
+          <t>006822</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>凯石湛混合C</t>
+          <t>凯石湛混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>77.93</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>4.56</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>10</v>
       </c>
     </row>
@@ -777,7 +887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,15 +908,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -818,26 +938,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009789</t>
+          <t>710001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富安达科技创新混合</t>
+          <t>富安达优势成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>9.17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6777</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -846,26 +976,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000549</t>
+          <t>040007</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安大国新经济股票</t>
+          <t>华安中小盘成长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.92</t>
+          <t>20.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>82.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4686</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001072</t>
+          <t>160211</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华安智能装备主题股票</t>
+          <t>国泰中小盘成长混合(LOF)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>89.56</t>
+          <t>8.15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3227</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -912,15 +1062,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>92.25</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>7.10</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2244</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>040007</t>
+          <t>001072</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安中小盘成长混合</t>
+          <t>华安智能装备主题股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>82.06</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1665</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001822</t>
+          <t>008635</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华商智能生活灵活配置混合</t>
+          <t>华安科技创新混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.03</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -986,25 +1166,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>160211</t>
+          <t>001822</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰中小盘成长混合(LOF)</t>
+          <t>华商智能生活灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>91.59</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001933</t>
+          <t>009789</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华商新兴活力灵活配置混合</t>
+          <t>富安达科技创新混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.15</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002292</t>
+          <t>001933</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>诺安益鑫灵活配置混合</t>
+          <t>华商新兴活力灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>64.57</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.45</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>710001</t>
+          <t>000549</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富安达优势成长混合</t>
+          <t>华安大国新经济股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.39</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008635</t>
+          <t>002292</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华安科技创新混合</t>
+          <t>诺安益鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>89.77</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>64.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300613-富瀚微.xlsx
+++ b/数据整理/stocks/A股/创业板/300613-富瀚微.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1353,4 +1354,1352 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0107</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011128</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安精致生活混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>66.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>60.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5546</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>040007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0481</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9182</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011435</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>39.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>39.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6128</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6061</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005136</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安幸福生活混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5411</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>040025</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安科技动力混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5217</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4823</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4195</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3994</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001072</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安智能装备主题股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3502</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安成长创新混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3059</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011436</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>39.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2812</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006122</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2232</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008635</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安科技创新混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1579</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001028</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安物联网主题股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1321</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1275</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011129</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安精致生活混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>60.15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1121</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001312</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003799</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>26.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000549</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002144</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>61.57</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003800</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>26.99</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001282</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>28.47</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300613-富瀚微.xlsx
+++ b/数据整理/stocks/A股/创业板/300613-富瀚微.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2702,4 +2703,1618 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009318</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>106.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.7499</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2543</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011128</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安精致生活混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0750</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>040007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9339</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010410</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>70.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9170</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011435</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>36.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>67.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9059</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007340</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9012</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009319</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8152</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5076</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>040025</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安科技动力混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4647</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4111</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4041</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011436</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>67.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3813</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002363</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>51.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3780</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3324</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.82</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3215</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001072</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安智能装备主题股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3119</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2664</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011129</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安精致生活混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2556</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2248</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006122</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1986</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160529</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1907</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001028</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安物联网主题股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008635</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安科技创新混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1410</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011144</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010411</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长城品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>70.29</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001312</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>22.13</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002364</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000549</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007341</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002144</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>22.13</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011145</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>59.44</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>740001</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>59.44</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>160415</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华安量化多因子混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300613-富瀚微.xlsx
+++ b/数据整理/stocks/A股/创业板/300613-富瀚微.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4317,4 +4318,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>41</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300613-富瀚微.xlsx
+++ b/数据整理/stocks/A股/创业板/300613-富瀚微.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4326,7 +4327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4337,17 +4338,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4357,14 +4378,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>41</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.33</v>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>46.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0072</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -4373,14 +4416,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>34</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.56</v>
+          <t>040007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1940</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -4389,14 +4454,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.13</v>
+          <t>007340</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7021</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -4405,13 +4492,1099 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>040025</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安科技动力混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5961</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001072</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安智能装备主题股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4923</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006122</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4145</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3908</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3828</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2860</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008635</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安科技创新混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2393</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011144</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1727</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001028</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安物联网主题股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1382</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000549</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007341</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011145</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005517</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>26.20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005518</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>26.20</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011025</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>九泰久元量化股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011026</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>九泰久元量化股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>41</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.42</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300613-富瀚微.xlsx
+++ b/数据整理/stocks/A股/创业板/300613-富瀚微.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5483,7 +5484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5494,17 +5495,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5514,14 +5535,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.48</v>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1810</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -5530,14 +5573,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>41</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.33</v>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7292</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -5546,14 +5611,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>34</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.56</v>
+          <t>011435</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6360</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -5562,14 +5649,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.13</v>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4946</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -5578,13 +5687,585 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011436</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>70.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2628</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2320</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001072</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安智能装备主题股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1886</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001028</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安物联网主题股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008033</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中加科盈混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000549</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008034</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中加科盈混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>41</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>34</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.42</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300613-富瀚微.xlsx
+++ b/数据整理/stocks/A股/创业板/300613-富瀚微.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6148,7 +6149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6159,17 +6160,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6179,14 +6200,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.11</v>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4317</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -6195,14 +6238,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>29</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.48</v>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9038</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -6211,14 +6276,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>41</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.33</v>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8485</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -6227,14 +6314,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>34</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.56</v>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7717</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -6243,14 +6352,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.13</v>
+          <t>014007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6308</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -6259,13 +6390,2157 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5594</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>040025</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安科技动力混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3672</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3555</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014389</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3469</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3404</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014418</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2618</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001072</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安智能装备主题股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2396</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011738</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>37.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2342</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2193</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>040016</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2101</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006122</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1730</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>040020</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安升级主题混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1648</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013619</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1522</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011739</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>37.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001028</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安物联网主题股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1364</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013116</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014419</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1241</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008635</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安科技创新混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008290</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安现代生活混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011390</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014126</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000549</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011144</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013507</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014008</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014390</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>26.63</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>25.20</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010584</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>渤海汇金新动能主题混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014125</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011145</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>562520</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏中证智选1000成长创新策略ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013622</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华安智能装备主题股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014976</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华安升级主题混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>41</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>34</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.42</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300613-富瀚微.xlsx
+++ b/数据整理/stocks/A股/创业板/300613-富瀚微.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>10.09</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="D3" t="n">
-        <v>5.11</v>
+        <v>10.09</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>7.48</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
-        <v>18.33</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D6" t="n">
-        <v>11.56</v>
+        <v>18.33</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D7" t="n">
-        <v>2.13</v>
+        <v>11.56</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>10</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.42</v>
       </c>
     </row>
@@ -600,6 +617,738 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002363</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>107.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5086</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002364</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3826</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002144</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>22.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2434</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1806</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001312</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>040020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安升级主题混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001028</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安物联网主题股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011390</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>33.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008290</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安现代生活混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000549</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009409</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安添福18个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009410</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安添福18个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014976</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安升级主题混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>016291</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>016292</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安物联网主题股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>016181</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>33.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2857,7 +3606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3521,7 +4270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4677,7 +5426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6291,7 +7040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7639,7 +8388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8113,7 +8862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300613-富瀚微.xlsx
+++ b/数据整理/stocks/A股/创业板/300613-富瀚微.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>2.93</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>10.09</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="D4" t="n">
-        <v>5.11</v>
+        <v>10.09</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>7.48</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>18.33</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D7" t="n">
-        <v>11.56</v>
+        <v>18.33</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D8" t="n">
-        <v>2.13</v>
+        <v>11.56</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>10</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.42</v>
       </c>
     </row>
@@ -616,7 +633,803 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>040025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安科技动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3091</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001072</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安智能装备主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2047</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1942</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009547</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安鼎利混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>64.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1687</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008635</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安科技创新混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1566</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006122</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1528</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1419</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006823</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>凯石湛混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006822</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>凯石湛混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4579</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4436</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4014</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014008</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013507</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014581</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1348,7 +2161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3606,7 +4419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4270,7 +5083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5426,7 +6239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7040,7 +7853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8388,7 +9201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8860,440 +9673,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>040025</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安科技动力混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11.28</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.74</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3091</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001072</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华安智能装备主题股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.31</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.77</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2047</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160425</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华安创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.87</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1942</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009547</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华安鼎利混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>64.65</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1687</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008635</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华安科技创新混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1566</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006122</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华安低碳生活混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.13</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1528</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>040015</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华安动态灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>79.58</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1419</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006154</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华安制造先锋混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.03</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0672</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006823</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>凯石湛混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>77.93</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0219</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006822</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>凯石湛混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>77.93</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0073</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>